--- a/medicine/Enfance/Aline_Ahond/Aline_Ahond.xlsx
+++ b/medicine/Enfance/Aline_Ahond/Aline_Ahond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aline Ahond, née en 1970[1], est une cinéaste plasticienne, autrice de livres pour la jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aline Ahond, née en 1970, est une cinéaste plasticienne, autrice de livres pour la jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a réalisé de nombreux films d'animation et de fiction. Elle a également réalisé des films d'habillages pour Arte et collaboré avec Bertrand Mandico. Ses courts-métrages et films de commandes ont reçu de nombreux prix.
 Également peintre et photographe, Aline Ahond a mis au point une technique photographique par transparents, qu'elle a élaborée au fil de ses livres. Elle a réalisé plusieurs ouvrages, affiches pour des festivals, affiches de films et diverses expositions.
@@ -545,10 +559,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Courts-métrages
-Carnavallée, 1998, prix du meilleur film au festival de Krok
-Un âne[2], 2000, prix du meilleur film d'animation au Aye Aye film festival de Nancy
-Imago[3], 2003, Festival d'Anger / Vendôme[4]
+          <t>Courts-métrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Carnavallée, 1998, prix du meilleur film au festival de Krok
+Un âne, 2000, prix du meilleur film d'animation au Aye Aye film festival de Nancy
+Imago, 2003, Festival d'Anger / Vendôme
 Flèches, 2017</t>
         </is>
       </c>
@@ -577,7 +596,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Verlaine. Éditions Mango
 Poésie et chanson brésiliennes, textes choisis et traduits par Claire Chevalier-Leibovitz ; images de Aline Ahond. Éditions Mango
